--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\DLThrasher\Development\Projects Via Source Tree\Visual Studios\Website\FitMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\DLThrasher\Development\Projects Via Source Tree\Visual Studios\Website\FitMe\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Exceptions" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t xml:space="preserve">completion interval </t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>UserModel</t>
+  </si>
+  <si>
+    <t>When signing in we found repeat emails in DB</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>Failure displaying user profile because user is incomplete</t>
+  </si>
+  <si>
+    <t>UserProfile.aspx</t>
   </si>
 </sst>
 </file>
@@ -397,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +443,28 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>When reading for the colum there was more than 1 id with the filtered value</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>TopModel</t>
   </si>
   <si>
@@ -64,6 +55,24 @@
   </si>
   <si>
     <t>UserProfile.aspx</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>Database is not responding</t>
+  </si>
+  <si>
+    <t>DataBase.cs</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -415,56 +424,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -487,7 +509,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>200</v>

--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>When reading for the colum there was more than 1 id with the filtered value</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>0x0004, Failed to ReadFromTable,</t>
   </si>
 </sst>
 </file>
@@ -424,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -487,6 +495,17 @@
       </c>
       <c r="C5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>When reading for the colum there was more than 1 id with the filtered value</t>
   </si>
@@ -78,7 +78,16 @@
     <t>0x0004</t>
   </si>
   <si>
-    <t>0x0004, Failed to ReadFromTable,</t>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t>TopModel.cs</t>
+  </si>
+  <si>
+    <t>Failed to ReadFromTable,</t>
+  </si>
+  <si>
+    <t>Try Removing Top Failed</t>
   </si>
 </sst>
 </file>
@@ -430,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +514,18 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>When reading for the colum there was more than 1 id with the filtered value</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Try Removing Top Failed</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>Unable to close the DB connection</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +532,17 @@
       </c>
       <c r="C7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Specifications_FitMe.xlsx
+++ b/Docs/Specifications_FitMe.xlsx
@@ -25,75 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>When reading for the colum there was more than 1 id with the filtered value</t>
-  </si>
-  <si>
-    <t>TopModel</t>
-  </si>
-  <si>
-    <t>0x0000</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">completion interval </t>
   </si>
   <si>
-    <t>0x0001</t>
-  </si>
-  <si>
-    <t>UserModel</t>
-  </si>
-  <si>
-    <t>When signing in we found repeat emails in DB</t>
-  </si>
-  <si>
-    <t>0x0002</t>
-  </si>
-  <si>
-    <t>Failure displaying user profile because user is incomplete</t>
-  </si>
-  <si>
-    <t>UserProfile.aspx</t>
-  </si>
-  <si>
-    <t>0x0003</t>
-  </si>
-  <si>
-    <t>Database is not responding</t>
-  </si>
-  <si>
-    <t>DataBase.cs</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>0x0004</t>
-  </si>
-  <si>
-    <t>0x0005</t>
-  </si>
-  <si>
-    <t>TopModel.cs</t>
-  </si>
-  <si>
-    <t>Failed to ReadFromTable,</t>
-  </si>
-  <si>
-    <t>Try Removing Top Failed</t>
-  </si>
-  <si>
-    <t>0x0006</t>
-  </si>
-  <si>
-    <t>Unable to close the DB connection</t>
+    <t>Tracked in FitMe/Documentation/ExceptionList.md</t>
   </si>
 </sst>
 </file>
@@ -445,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,92 +394,9 @@
     <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +419,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>200</v>
